--- a/data/trans_bre/P19C02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.605960160343277</v>
+        <v>-4.663309981426734</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.063514504397354</v>
+        <v>1.147186845291052</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.26805472920836</v>
+        <v>-3.693191949140676</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1428341338636804</v>
+        <v>0.7567045752306404</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1872678498623964</v>
+        <v>-0.1886111605729126</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08726546235147466</v>
+        <v>0.04633597683519142</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1042206777548624</v>
+        <v>-0.1140899103913298</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.001271249378760749</v>
+        <v>0.01706714811190006</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.990411088927973</v>
+        <v>6.160212056468219</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.78530182478234</v>
+        <v>11.81243775574178</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.964478685307756</v>
+        <v>6.972464088631364</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.76514512258792</v>
+        <v>10.88541813415115</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3161256128534176</v>
+        <v>0.3193706143016198</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6100267614965674</v>
+        <v>0.5921380595022567</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3122975471263648</v>
+        <v>0.2791866170026859</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2709286642559915</v>
+        <v>0.2731789784991521</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.005854576191323</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9330147958456658</v>
+        <v>0.9330147958456436</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05790853574079077</v>
@@ -749,7 +749,7 @@
         <v>0.02711720945711011</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.01825411251082381</v>
+        <v>0.01825411251082337</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.9372629835461</v>
+        <v>-3.281039009241145</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-8.072951012094707</v>
+        <v>-8.223030812068922</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.733490382411083</v>
+        <v>-4.189072376254605</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.678314434247183</v>
+        <v>-3.701293967447059</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.09883180054846807</v>
+        <v>-0.115100712684461</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2516430951449484</v>
+        <v>-0.2451760394015079</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.0937329996210808</v>
+        <v>-0.1026973315353941</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.06706607233116933</v>
+        <v>-0.0701278556995209</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.394692253773185</v>
+        <v>6.43680059924557</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9230501345652713</v>
+        <v>0.7129587899518641</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.867756575834555</v>
+        <v>5.434869918361844</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.611291158613803</v>
+        <v>5.344588339807528</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2657506064375816</v>
+        <v>0.2584206748411833</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03018114891779803</v>
+        <v>0.02559308428403402</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1742926858790489</v>
+        <v>0.1568500865071852</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.116978896641897</v>
+        <v>0.109581753512439</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.836149268594557</v>
+        <v>-2.393147487959939</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.1590144911787858</v>
+        <v>0.2297006327638426</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.152178454537215</v>
+        <v>0.6803484539681324</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.112567745328525</v>
+        <v>-5.98724366354864</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.05773535454432636</v>
+        <v>-0.07096655820626811</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.006694636856932471</v>
+        <v>0.003279379284496814</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03169667893867829</v>
+        <v>0.01851752750693123</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.129519617627527</v>
+        <v>-0.1270040792237726</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.464636413382081</v>
+        <v>8.531683991366306</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.37092546801811</v>
+        <v>11.24514431755758</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.92272235477962</v>
+        <v>13.17881311712355</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.467988224867363</v>
+        <v>4.357905650702462</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3417540728541383</v>
+        <v>0.3200921381315002</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3942865327800982</v>
+        <v>0.4327427783625337</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4204267414671256</v>
+        <v>0.4419041200634459</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1129358967056245</v>
+        <v>0.108234326675513</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.5408869098062818</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6638359120138826</v>
+        <v>0.6638359120138604</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.085064039609433</v>
@@ -949,7 +949,7 @@
         <v>0.01423738111697766</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.01358817702805931</v>
+        <v>0.01358817702805886</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-7.8263032930159</v>
+        <v>-7.570047501758305</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.040327163591033</v>
+        <v>-5.072994424091268</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.65013599699828</v>
+        <v>-4.238161195734656</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.000118113544785</v>
+        <v>-3.617086122042049</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2153125629330039</v>
+        <v>-0.209775364130307</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1288818632036939</v>
+        <v>-0.1322479291970456</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.111564753065828</v>
+        <v>-0.1055139839520688</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.07809978137791269</v>
+        <v>-0.07066899732652628</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.041647852893278</v>
+        <v>2.108262651344397</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.446490481495105</v>
+        <v>5.125958234129016</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.803949043950998</v>
+        <v>5.658326953972729</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.078592508269035</v>
+        <v>5.346665724539553</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06580826406133815</v>
+        <v>0.06990272709657412</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1336546472129582</v>
+        <v>0.1555469115131205</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1328270517453702</v>
+        <v>0.1563761386024981</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1108143902342844</v>
+        <v>0.1168862651223808</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.06714256642606527</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.03152772196169824</v>
+        <v>0.03152772196169825</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.850397465644256</v>
+        <v>-2.251481011097993</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.8146133076749132</v>
+        <v>-0.9717897505029357</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.07998208674959584</v>
+        <v>-0.3800104945175713</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.013163540611321</v>
+        <v>-0.8292476538588978</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.06415157600126103</v>
+        <v>-0.07417391110204874</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.026377305052016</v>
+        <v>-0.03160944255846217</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.002185537136337797</v>
+        <v>-0.01044125244075886</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.02080718206232818</v>
+        <v>-0.0172635637693951</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.094267838797249</v>
+        <v>2.873342698774781</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.013410446208208</v>
+        <v>3.923490120349544</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.046921784975142</v>
+        <v>4.887429081433221</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.809567725876013</v>
+        <v>3.74112148230611</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1112612824179293</v>
+        <v>0.1040246949864639</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1416014656592068</v>
+        <v>0.1388289388784403</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1511080160102892</v>
+        <v>0.1443274853527011</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.08332746563732985</v>
+        <v>0.0817317146003481</v>
       </c>
     </row>
     <row r="19">
